--- a/Solina/Production/Input_Production_Solina.xlsx
+++ b/Solina/Production/Input_Production_Solina.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/Solina/Production/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDDDA38D6FB965406E816C9B806C1C60BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49279FB6-B812-4AC2-B7F0-A98A829440DA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -325,11 +331,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,13 +399,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -437,7 +451,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -471,6 +485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -505,9 +520,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -680,14 +696,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45341</v>
       </c>
@@ -724,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45341</v>
       </c>
@@ -741,7 +767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45341</v>
       </c>
@@ -758,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45341</v>
       </c>
@@ -766,7 +792,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E5">
         <v>97</v>
@@ -775,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45341</v>
       </c>
@@ -792,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45341</v>
       </c>
@@ -809,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45341</v>
       </c>
@@ -826,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45341</v>
       </c>
@@ -843,7 +869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45341</v>
       </c>
@@ -860,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45342</v>
       </c>
@@ -880,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45342</v>
       </c>
@@ -900,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45342</v>
       </c>
@@ -920,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45342</v>
       </c>
@@ -940,7 +966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45342</v>
       </c>
@@ -960,7 +986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45342</v>
       </c>
@@ -980,7 +1006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45342</v>
       </c>
@@ -1000,7 +1026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45342</v>
       </c>
@@ -1020,7 +1046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45342</v>
       </c>
@@ -1040,7 +1066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45342</v>
       </c>
@@ -1060,7 +1086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45342</v>
       </c>
@@ -1080,7 +1106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45342</v>
       </c>
@@ -1100,7 +1126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45342</v>
       </c>
@@ -1120,7 +1146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45342</v>
       </c>
@@ -1140,7 +1166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45342</v>
       </c>
@@ -1160,7 +1186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45342</v>
       </c>
@@ -1180,7 +1206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45342</v>
       </c>
@@ -1200,7 +1226,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45342</v>
       </c>
@@ -1220,7 +1246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45342</v>
       </c>
@@ -1240,7 +1266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45342</v>
       </c>
@@ -1260,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45342</v>
       </c>
@@ -1280,7 +1306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45342</v>
       </c>
@@ -1300,7 +1326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45342</v>
       </c>
@@ -1311,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E33">
         <v>60</v>
@@ -1320,7 +1346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45342</v>
       </c>
@@ -1340,7 +1366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45343</v>
       </c>
@@ -1360,7 +1386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45343</v>
       </c>
@@ -1380,7 +1406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45343</v>
       </c>
@@ -1400,7 +1426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45343</v>
       </c>
@@ -1420,7 +1446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45343</v>
       </c>
@@ -1440,7 +1466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45343</v>
       </c>
@@ -1460,7 +1486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45343</v>
       </c>
@@ -1480,7 +1506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45343</v>
       </c>
@@ -1488,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D42">
         <v>3.96</v>
@@ -1500,7 +1526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45343</v>
       </c>
@@ -1520,7 +1546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45343</v>
       </c>
@@ -1540,7 +1566,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45343</v>
       </c>
@@ -1560,7 +1586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45343</v>
       </c>
@@ -1580,7 +1606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45343</v>
       </c>
@@ -1600,7 +1626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45343</v>
       </c>
@@ -1608,10 +1634,10 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>129.17</v>
+        <v>129.16999999999999</v>
       </c>
       <c r="D48">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -1620,7 +1646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45343</v>
       </c>
@@ -1631,7 +1657,7 @@
         <v>109.32</v>
       </c>
       <c r="D49">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E49">
         <v>95</v>
@@ -1640,7 +1666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45343</v>
       </c>
@@ -1660,7 +1686,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45343</v>
       </c>
@@ -1680,7 +1706,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45343</v>
       </c>
@@ -1700,7 +1726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45343</v>
       </c>
@@ -1720,7 +1746,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45343</v>
       </c>
@@ -1740,7 +1766,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45343</v>
       </c>
@@ -1760,7 +1786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45343</v>
       </c>
@@ -1780,7 +1806,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45343</v>
       </c>
@@ -1800,7 +1826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45343</v>
       </c>
@@ -1820,7 +1846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45344</v>
       </c>
@@ -1840,7 +1866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45344</v>
       </c>
@@ -1860,7 +1886,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45344</v>
       </c>
@@ -1880,7 +1906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45344</v>
       </c>
@@ -1900,7 +1926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45344</v>
       </c>
@@ -1920,7 +1946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45344</v>
       </c>
@@ -1940,7 +1966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45344</v>
       </c>
@@ -1960,7 +1986,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45344</v>
       </c>
@@ -1980,7 +2006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45344</v>
       </c>
@@ -1991,7 +2017,7 @@
         <v>38.22</v>
       </c>
       <c r="D67">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -2000,7 +2026,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45344</v>
       </c>
@@ -2008,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>77.43000000000001</v>
+        <v>77.430000000000007</v>
       </c>
       <c r="D68">
         <v>5.63</v>
@@ -2020,7 +2046,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45344</v>
       </c>
@@ -2040,7 +2066,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45344</v>
       </c>
@@ -2060,7 +2086,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45344</v>
       </c>
@@ -2080,7 +2106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45344</v>
       </c>
@@ -2091,7 +2117,7 @@
         <v>128.66</v>
       </c>
       <c r="D72">
-        <v>8.220000000000001</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="E72">
         <v>90</v>
@@ -2100,7 +2126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45344</v>
       </c>
@@ -2108,7 +2134,7 @@
         <v>14</v>
       </c>
       <c r="C73">
-        <v>147.39</v>
+        <v>147.38999999999999</v>
       </c>
       <c r="D73">
         <v>8.26</v>
@@ -2120,7 +2146,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45344</v>
       </c>
@@ -2128,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="C74">
-        <v>162.45</v>
+        <v>162.44999999999999</v>
       </c>
       <c r="D74">
         <v>7.44</v>
@@ -2140,7 +2166,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45344</v>
       </c>
@@ -2160,7 +2186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45344</v>
       </c>
@@ -2180,7 +2206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45344</v>
       </c>
@@ -2200,7 +2226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45344</v>
       </c>
@@ -2220,7 +2246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45344</v>
       </c>
@@ -2231,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E79">
         <v>99</v>
@@ -2240,7 +2266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45344</v>
       </c>
@@ -2260,7 +2286,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45344</v>
       </c>
@@ -2280,7 +2306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45344</v>
       </c>
@@ -2300,7 +2326,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45345</v>
       </c>
@@ -2317,7 +2343,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45345</v>
       </c>
@@ -2334,7 +2360,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45345</v>
       </c>
@@ -2351,7 +2377,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45345</v>
       </c>
@@ -2359,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="D86">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -2368,7 +2394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45345</v>
       </c>
@@ -2385,7 +2411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45345</v>
       </c>
@@ -2402,7 +2428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45345</v>
       </c>
@@ -2410,7 +2436,7 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -2419,7 +2445,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45345</v>
       </c>
@@ -2436,7 +2462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45345</v>
       </c>
@@ -2453,7 +2479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45345</v>
       </c>
@@ -2470,7 +2496,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45345</v>
       </c>
@@ -2487,7 +2513,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45345</v>
       </c>
@@ -2504,7 +2530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45345</v>
       </c>
@@ -2521,7 +2547,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45345</v>
       </c>
@@ -2538,7 +2564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45345</v>
       </c>
